--- a/benefit/data/ccd-template.xlsx
+++ b/benefit/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherdavidson/Documents/Dev/hmcts/sscs/sscs-ccd-definitions/benefit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E126649C-9346-DA4C-9B51-7A6147388A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB71FB-F658-D547-9D6D-400FBC639FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2840" windowWidth="24460" windowHeight="13900" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2840" windowWidth="24460" windowHeight="13900" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -21,34 +21,35 @@
     <sheet name="CaseTypeTab" sheetId="6" r:id="rId6"/>
     <sheet name="State" sheetId="7" r:id="rId7"/>
     <sheet name="CaseEvent" sheetId="8" r:id="rId8"/>
-    <sheet name="CaseEventToFields" sheetId="9" r:id="rId9"/>
-    <sheet name="SearchParty" sheetId="21" r:id="rId10"/>
-    <sheet name="EventToComplexTypes" sheetId="10" r:id="rId11"/>
-    <sheet name="SearchInputFields" sheetId="11" r:id="rId12"/>
-    <sheet name="SearchResultFields" sheetId="12" r:id="rId13"/>
-    <sheet name="WorkBasketInputFields" sheetId="13" r:id="rId14"/>
-    <sheet name="WorkBasketResultFields" sheetId="14" r:id="rId15"/>
-    <sheet name="UserProfile" sheetId="15" r:id="rId16"/>
-    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId17"/>
-    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId18"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId19"/>
-    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId20"/>
-    <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId21"/>
+    <sheet name="RoleToAccessProfiles" sheetId="22" r:id="rId9"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId10"/>
+    <sheet name="SearchParty" sheetId="21" r:id="rId11"/>
+    <sheet name="EventToComplexTypes" sheetId="10" r:id="rId12"/>
+    <sheet name="SearchInputFields" sheetId="11" r:id="rId13"/>
+    <sheet name="SearchResultFields" sheetId="12" r:id="rId14"/>
+    <sheet name="WorkBasketInputFields" sheetId="13" r:id="rId15"/>
+    <sheet name="WorkBasketResultFields" sheetId="14" r:id="rId16"/>
+    <sheet name="UserProfile" sheetId="15" r:id="rId17"/>
+    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId18"/>
+    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId19"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId20"/>
+    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId21"/>
+    <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseEvent!$A$3:$F$452</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">AuthorisationCaseField!$A$3:$F$618</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">AuthorisationCaseState!$A$3:$G$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">AuthorisationCaseEvent!$A$3:$F$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseField!$A$3:$F$618</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseState!$A$3:$G$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$V$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">CaseEventToFields!$A$3:$O$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseEventToFields!$A$3:$O$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseField!$A$2:$L$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">CaseTypeTab!$H$58:$H$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ComplexTypes!$A$3:$M$232</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FixedLists!$A$1:$E$702</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">State!$A$3:$H$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">WorkBasketInputFields!$A$3:$H$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">WorkBasketResultFields!$A$3:$H$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="17">AuthorisationCaseField!$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">WorkBasketInputFields!$A$3:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">WorkBasketResultFields!$A$3:$H$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="18">AuthorisationCaseField!$J$5</definedName>
     <definedName name="_xlnm.Extract" localSheetId="5">CaseTypeTab!$K$61</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="221">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -795,6 +796,24 @@
   </si>
   <si>
     <t>SearchPartyDoD</t>
+  </si>
+  <si>
+    <t>RoleToAccessProfiles</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>Authorisation</t>
+  </si>
+  <si>
+    <t>ReadOnly</t>
+  </si>
+  <si>
+    <t>AccessProfiles</t>
+  </si>
+  <si>
+    <t>Disabled</t>
   </si>
 </sst>
 </file>
@@ -2985,10 +3004,2547 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:AMJ229"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="24"/>
+    <col min="3" max="3" width="8.83203125" style="20"/>
+    <col min="4" max="4" width="77.1640625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="66" style="20" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="20"/>
+    <col min="7" max="7" width="39.83203125" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="20"/>
+    <col min="9" max="9" width="27.33203125" style="20" customWidth="1"/>
+    <col min="10" max="15" width="8.83203125" style="20"/>
+    <col min="16" max="16" width="8.83203125" style="47"/>
+    <col min="17" max="17" width="24" style="47" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="17" style="20" customWidth="1"/>
+    <col min="20" max="1024" width="8.83203125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+    </row>
+    <row r="2" spans="1:22" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="135" t="s">
+        <v>130</v>
+      </c>
+      <c r="P2" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q2" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="R2" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="S2" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="T2" s="138" t="s">
+        <v>135</v>
+      </c>
+      <c r="U2" s="138" t="s">
+        <v>136</v>
+      </c>
+      <c r="V2" s="138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="139" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="140" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" s="141" t="s">
+        <v>150</v>
+      </c>
+      <c r="S3" s="141" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="U3" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" s="141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="142"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="142"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="133"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="47"/>
+      <c r="O8" s="133"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="133"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="133"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="133"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="133"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="133"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="133"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="133"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="133"/>
+    </row>
+    <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="133"/>
+    </row>
+    <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="133"/>
+    </row>
+    <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="142"/>
+    </row>
+    <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="142"/>
+    </row>
+    <row r="21" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="142"/>
+    </row>
+    <row r="22" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="133"/>
+    </row>
+    <row r="23" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="133"/>
+    </row>
+    <row r="24" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="133"/>
+    </row>
+    <row r="25" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="133"/>
+    </row>
+    <row r="26" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="133"/>
+    </row>
+    <row r="27" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="133"/>
+    </row>
+    <row r="28" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="133"/>
+    </row>
+    <row r="29" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="133"/>
+    </row>
+    <row r="30" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="133"/>
+    </row>
+    <row r="31" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="133"/>
+    </row>
+    <row r="32" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="133"/>
+    </row>
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="133"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="133"/>
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="11"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="142"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="142"/>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="142"/>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="11"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="133"/>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="11"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="133"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="11"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="133"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="11"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="142"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="11"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="142"/>
+    </row>
+    <row r="43" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="142"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="142"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="11"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="142"/>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="11"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="142"/>
+    </row>
+    <row r="47" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="142"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="142"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="133"/>
+    </row>
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+    </row>
+    <row r="52" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="11"/>
+      <c r="P52" s="13"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="11"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="18"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="18"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="16"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="11"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="147"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="11"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="146"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="11"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="47"/>
+      <c r="F61" s="47"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+    </row>
+    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="11"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="150"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+    </row>
+    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="47"/>
+      <c r="L63" s="47"/>
+      <c r="M63" s="47"/>
+      <c r="N63" s="47"/>
+      <c r="O63" s="133"/>
+    </row>
+    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="14"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="142"/>
+    </row>
+    <row r="65" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="11"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="142"/>
+    </row>
+    <row r="66" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+      <c r="L66" s="47"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="47"/>
+      <c r="O66" s="133"/>
+    </row>
+    <row r="67" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="133"/>
+    </row>
+    <row r="68" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="133"/>
+    </row>
+    <row r="69" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="14"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="151"/>
+      <c r="G69" s="110"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="133"/>
+    </row>
+    <row r="71" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="47"/>
+      <c r="J71" s="47"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="133"/>
+    </row>
+    <row r="72" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="133"/>
+    </row>
+    <row r="73" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="11"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="133"/>
+    </row>
+    <row r="74" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="11"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="133"/>
+    </row>
+    <row r="75" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="133"/>
+    </row>
+    <row r="76" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="11"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="133"/>
+    </row>
+    <row r="77" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="11"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+    </row>
+    <row r="78" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="11"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="76"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="11"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="76"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+    </row>
+    <row r="80" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="11"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="133"/>
+    </row>
+    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="11"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="133"/>
+    </row>
+    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="14"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+    </row>
+    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="47"/>
+      <c r="J83" s="47"/>
+      <c r="K83" s="47"/>
+      <c r="L83" s="47"/>
+      <c r="M83" s="47"/>
+      <c r="N83" s="47"/>
+      <c r="O83" s="133"/>
+    </row>
+    <row r="84" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="24"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="152"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="24"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="11"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="152"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="24"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="152"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="24"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="11"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="47"/>
+      <c r="K88" s="47"/>
+      <c r="L88" s="47"/>
+      <c r="M88" s="47"/>
+      <c r="N88" s="47"/>
+      <c r="O88" s="133"/>
+    </row>
+    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="47"/>
+      <c r="K89" s="47"/>
+      <c r="L89" s="47"/>
+      <c r="M89" s="47"/>
+      <c r="N89" s="47"/>
+      <c r="O89" s="133"/>
+    </row>
+    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="11"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="L90" s="18"/>
+    </row>
+    <row r="91" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="24"/>
+      <c r="B91" s="24"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="110"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="20"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="24"/>
+      <c r="B92" s="24"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="153"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="149"/>
+      <c r="G92" s="88"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="150"/>
+      <c r="J92" s="20"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="16"/>
+      <c r="G93" s="88"/>
+      <c r="H93" s="11"/>
+      <c r="P93" s="13"/>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="24"/>
+      <c r="B94" s="24"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="18"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="11"/>
+      <c r="P94" s="13"/>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="24"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="11"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="24"/>
+      <c r="B96" s="24"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="148"/>
+      <c r="E96" s="127"/>
+      <c r="F96" s="149"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="150"/>
+      <c r="J96" s="149"/>
+      <c r="K96" s="149"/>
+      <c r="P96" s="13"/>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="24"/>
+      <c r="B97" s="24"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="20"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="20"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="20"/>
+      <c r="O97" s="20"/>
+      <c r="P97" s="13"/>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="24"/>
+      <c r="B98" s="24"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="18"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="11"/>
+      <c r="P98" s="13"/>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24"/>
+      <c r="B99" s="24"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="20"/>
+      <c r="O99" s="20"/>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="14"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+    </row>
+    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="47"/>
+    </row>
+    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+    </row>
+    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+    </row>
+    <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
+    </row>
+    <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+    </row>
+    <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="14"/>
+    </row>
+    <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="14"/>
+    </row>
+    <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="14"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="47"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="47"/>
+      <c r="K108" s="47"/>
+      <c r="L108" s="47"/>
+      <c r="M108" s="47"/>
+    </row>
+    <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="14"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="14"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+    </row>
+    <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="14"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="14"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+    </row>
+    <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="14"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="14"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+    </row>
+    <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C112" s="11"/>
+      <c r="E112" s="19"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="47"/>
+    </row>
+    <row r="113" spans="3:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C113" s="11"/>
+      <c r="E113" s="18"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="47"/>
+    </row>
+    <row r="114" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C114" s="11"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+    </row>
+    <row r="115" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C115" s="11"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+    </row>
+    <row r="116" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C116" s="11"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+    </row>
+    <row r="117" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C117" s="11"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+    </row>
+    <row r="118" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C118" s="11"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+    </row>
+    <row r="119" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C119" s="11"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+    </row>
+    <row r="120" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C120" s="11"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+    </row>
+    <row r="121" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C121" s="11"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+    </row>
+    <row r="122" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C122" s="11"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+    </row>
+    <row r="123" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C123" s="14"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="G123" s="22"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="22"/>
+    </row>
+    <row r="124" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="14"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
+      <c r="G124" s="22"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="22"/>
+    </row>
+    <row r="125" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C125" s="14"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="19"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="22"/>
+    </row>
+    <row r="126" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C126" s="14"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="G126" s="22"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="22"/>
+    </row>
+    <row r="127" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C127" s="14"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="22"/>
+    </row>
+    <row r="128" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C128" s="14"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
+      <c r="G128" s="22"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="22"/>
+    </row>
+    <row r="129" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="24"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+      <c r="O129" s="142"/>
+      <c r="P129" s="13"/>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="143"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="13"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+    </row>
+    <row r="131" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="154"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+    </row>
+    <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="154"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+    </row>
+    <row r="133" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="152"/>
+      <c r="G133" s="18"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+    </row>
+    <row r="134" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="24"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="143"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="13"/>
+      <c r="K134" s="13"/>
+      <c r="L134" s="13"/>
+      <c r="M134" s="13"/>
+      <c r="N134" s="13"/>
+      <c r="O134" s="142"/>
+      <c r="P134" s="13"/>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="24"/>
+      <c r="B135" s="24"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="11"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="143"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="11"/>
+      <c r="J135" s="13"/>
+      <c r="K135" s="13"/>
+      <c r="L135" s="13"/>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="142"/>
+      <c r="P135" s="13"/>
+      <c r="Q135" s="13"/>
+    </row>
+    <row r="136" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="24"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="11"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="143"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="13"/>
+      <c r="K136" s="13"/>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="142"/>
+      <c r="P136" s="13"/>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="24"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="143"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="13"/>
+      <c r="M137" s="13"/>
+      <c r="N137" s="13"/>
+      <c r="O137" s="142"/>
+      <c r="P137" s="13"/>
+      <c r="Q137" s="13"/>
+    </row>
+    <row r="138" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="24"/>
+      <c r="B138" s="24"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="154"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="18"/>
+      <c r="P138" s="13"/>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="24"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="154"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="18"/>
+      <c r="P139" s="13"/>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="24"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="152"/>
+      <c r="G140" s="18"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="13"/>
+    </row>
+    <row r="141" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="24"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="152"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="18"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+    </row>
+    <row r="142" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="24"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="152"/>
+      <c r="G142" s="21"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="18"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="24"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="152"/>
+      <c r="G143" s="21"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="18"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+    </row>
+    <row r="144" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="24"/>
+      <c r="B144" s="24"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="152"/>
+      <c r="G144" s="21"/>
+      <c r="H144" s="11"/>
+      <c r="P144" s="13"/>
+      <c r="Q144" s="13"/>
+    </row>
+    <row r="145" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="24"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="18"/>
+      <c r="F145" s="152"/>
+      <c r="G145" s="18"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="18"/>
+      <c r="P145" s="13"/>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="24"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="18"/>
+      <c r="H146" s="11"/>
+      <c r="P146" s="13"/>
+      <c r="Q146" s="13"/>
+    </row>
+    <row r="147" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="24"/>
+      <c r="B147" s="24"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="18"/>
+      <c r="F147" s="152"/>
+      <c r="G147" s="21"/>
+      <c r="H147" s="11"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+    </row>
+    <row r="148" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="24"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="18"/>
+      <c r="F148" s="152"/>
+      <c r="G148" s="18"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="18"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+    </row>
+    <row r="149" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="24"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="152"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="18"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="13"/>
+    </row>
+    <row r="150" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="24"/>
+      <c r="B150" s="24"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="152"/>
+      <c r="G150" s="18"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="18"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+    </row>
+    <row r="151" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="24"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="152"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="18"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="13"/>
+    </row>
+    <row r="152" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="24"/>
+      <c r="B152" s="24"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="96"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="155"/>
+      <c r="G152" s="34"/>
+      <c r="H152" s="96"/>
+      <c r="I152" s="96"/>
+      <c r="J152" s="156"/>
+      <c r="K152" s="156"/>
+      <c r="L152" s="156"/>
+      <c r="M152" s="156"/>
+      <c r="N152" s="157"/>
+      <c r="O152" s="157"/>
+      <c r="P152" s="13"/>
+      <c r="Q152" s="13"/>
+    </row>
+    <row r="153" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="24"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="154"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="18"/>
+      <c r="P153" s="13"/>
+      <c r="Q153" s="13"/>
+    </row>
+    <row r="154" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="24"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="154"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="18"/>
+      <c r="P154" s="13"/>
+      <c r="Q154" s="13"/>
+    </row>
+    <row r="155" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="24"/>
+      <c r="B155" s="24"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="33"/>
+      <c r="F155" s="152"/>
+      <c r="G155" s="18"/>
+      <c r="H155" s="18"/>
+      <c r="P155" s="13"/>
+      <c r="Q155" s="13"/>
+    </row>
+    <row r="156" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="143"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="13"/>
+      <c r="K156" s="13"/>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="142"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+    </row>
+    <row r="157" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C157" s="14"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="143"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11"/>
+      <c r="J157" s="13"/>
+      <c r="K157" s="13"/>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
+      <c r="O157" s="142"/>
+    </row>
+    <row r="158" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C158" s="14"/>
+      <c r="D158" s="19"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="143"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+      <c r="K158" s="13"/>
+      <c r="L158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="13"/>
+      <c r="O158" s="142"/>
+    </row>
+    <row r="159" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
+      <c r="N159" s="13"/>
+      <c r="O159" s="142"/>
+      <c r="P159" s="13"/>
+      <c r="Q159" s="13"/>
+    </row>
+    <row r="160" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="11"/>
+    </row>
+    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+    </row>
+    <row r="162" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="24"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
+      <c r="M162" s="13"/>
+      <c r="N162" s="13"/>
+      <c r="O162" s="142"/>
+      <c r="P162" s="13"/>
+      <c r="Q162" s="13"/>
+    </row>
+    <row r="163" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="24"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="46"/>
+      <c r="D163" s="45"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="29"/>
+      <c r="M163" s="29"/>
+      <c r="N163" s="29"/>
+      <c r="O163" s="158"/>
+      <c r="P163" s="29"/>
+      <c r="Q163" s="29"/>
+    </row>
+    <row r="164" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="24"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="46"/>
+      <c r="D164" s="45"/>
+      <c r="E164" s="29"/>
+      <c r="F164" s="29"/>
+      <c r="G164" s="29"/>
+      <c r="H164" s="29"/>
+      <c r="I164" s="29"/>
+      <c r="J164" s="29"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="29"/>
+      <c r="M164" s="29"/>
+      <c r="N164" s="29"/>
+      <c r="O164" s="158"/>
+      <c r="P164" s="29"/>
+      <c r="Q164" s="29"/>
+    </row>
+    <row r="165" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="29"/>
+      <c r="F165" s="29"/>
+      <c r="G165" s="29"/>
+      <c r="H165" s="29"/>
+      <c r="I165" s="29"/>
+      <c r="J165" s="29"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="29"/>
+      <c r="M165" s="29"/>
+      <c r="N165" s="29"/>
+      <c r="O165" s="158"/>
+      <c r="P165" s="29"/>
+      <c r="Q165" s="29"/>
+    </row>
+    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <autoFilter ref="A3:O161" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <conditionalFormatting sqref="E120">
+    <cfRule type="duplicateValues" dxfId="69" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73">
+    <cfRule type="duplicateValues" dxfId="68" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="duplicateValues" dxfId="67" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E121:E128">
+    <cfRule type="duplicateValues" dxfId="65" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E136">
+    <cfRule type="duplicateValues" dxfId="64" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D142">
+    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D91:D92 D156">
+    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E158">
+    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144">
+    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E155">
+    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FC5E5D-C2A1-6040-955C-8FE864F39FBA}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3036,7 +5592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -3183,7 +5739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I573"/>
   <sheetViews>
@@ -5300,7 +7856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -5603,7 +8159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
@@ -6275,7 +8831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
@@ -6746,7 +9302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
@@ -7413,7 +9969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:IV35"/>
   <sheetViews>
@@ -7637,7 +10193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ1015"/>
   <sheetViews>
@@ -21657,7 +24213,188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AMJ696"/>
   <sheetViews>
@@ -27704,188 +30441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:IV151"/>
   <sheetViews>
@@ -28935,7 +31491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
@@ -45261,2538 +47817,50 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMJ229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9A68F-9D85-C640-9E0E-68D94EA93DB9}">
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="24"/>
-    <col min="3" max="3" width="8.83203125" style="20"/>
-    <col min="4" max="4" width="77.1640625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="66" style="20" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="20"/>
-    <col min="7" max="7" width="39.83203125" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="20"/>
-    <col min="9" max="9" width="27.33203125" style="20" customWidth="1"/>
-    <col min="10" max="15" width="8.83203125" style="20"/>
-    <col min="16" max="16" width="8.83203125" style="47"/>
-    <col min="17" max="17" width="24" style="47" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="17" style="20" customWidth="1"/>
-    <col min="20" max="1024" width="8.83203125" style="20"/>
+    <col min="1" max="1" width="10.83203125" style="225"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>119</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>215</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-    </row>
-    <row r="2" spans="1:22" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="K2" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="135" t="s">
-        <v>130</v>
-      </c>
-      <c r="P2" s="136" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q2" s="137" t="s">
-        <v>132</v>
-      </c>
-      <c r="R2" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="S2" s="138" t="s">
-        <v>134</v>
-      </c>
-      <c r="T2" s="138" t="s">
-        <v>135</v>
-      </c>
-      <c r="U2" s="138" t="s">
-        <v>136</v>
-      </c>
-      <c r="V2" s="138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>138</v>
+      <c r="C3" t="s">
+        <v>216</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>78</v>
+      <c r="D3" t="s">
+        <v>217</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>139</v>
+      <c r="E3" t="s">
+        <v>218</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>140</v>
+      <c r="F3" t="s">
+        <v>219</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>141</v>
+      <c r="G3" t="s">
+        <v>220</v>
       </c>
-      <c r="I3" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" s="139" t="s">
-        <v>147</v>
-      </c>
-      <c r="P3" s="140" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q3" s="140" t="s">
-        <v>149</v>
-      </c>
-      <c r="R3" s="141" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="141" t="s">
-        <v>151</v>
-      </c>
-      <c r="T3" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="U3" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="V3" s="141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="142"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="142"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:22" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="142"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="133"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="133"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="133"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="133"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="133"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="133"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="133"/>
-    </row>
-    <row r="14" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="133"/>
-    </row>
-    <row r="15" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="133"/>
-    </row>
-    <row r="16" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="133"/>
-    </row>
-    <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="133"/>
-    </row>
-    <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="133"/>
-    </row>
-    <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="142"/>
-    </row>
-    <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="144"/>
-      <c r="O20" s="142"/>
-    </row>
-    <row r="21" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="142"/>
-    </row>
-    <row r="22" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="133"/>
-    </row>
-    <row r="23" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="133"/>
-    </row>
-    <row r="24" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="133"/>
-    </row>
-    <row r="25" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="133"/>
-    </row>
-    <row r="26" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="133"/>
-    </row>
-    <row r="27" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="133"/>
-    </row>
-    <row r="28" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="133"/>
-    </row>
-    <row r="29" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="133"/>
-    </row>
-    <row r="30" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="133"/>
-    </row>
-    <row r="31" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="133"/>
-    </row>
-    <row r="32" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="133"/>
-    </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="133"/>
-    </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="133"/>
-    </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="11"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="142"/>
-    </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="142"/>
-    </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="142"/>
-    </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="11"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="133"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="11"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="133"/>
-    </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="11"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="133"/>
-    </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="11"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="142"/>
-    </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="11"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="142"/>
-    </row>
-    <row r="43" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="142"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="142"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-    </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="11"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="142"/>
-    </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="11"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="142"/>
-    </row>
-    <row r="47" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="142"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="142"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="133"/>
-    </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-    </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-    </row>
-    <row r="52" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="11"/>
-      <c r="P52" s="13"/>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="76"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="11"/>
-      <c r="P53" s="13"/>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="18"/>
-      <c r="P54" s="13"/>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="18"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="76"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="16"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="P57" s="13"/>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="11"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="146"/>
-      <c r="E59" s="147"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="11"/>
-      <c r="P59" s="13"/>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="146"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="11"/>
-      <c r="P60" s="13"/>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="17"/>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-    </row>
-    <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="127"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="150"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-    </row>
-    <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="47"/>
-      <c r="L63" s="47"/>
-      <c r="M63" s="47"/>
-      <c r="N63" s="47"/>
-      <c r="O63" s="133"/>
-    </row>
-    <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C64" s="14"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="142"/>
-    </row>
-    <row r="65" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="11"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="142"/>
-    </row>
-    <row r="66" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="133"/>
-    </row>
-    <row r="67" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="133"/>
-    </row>
-    <row r="68" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="133"/>
-    </row>
-    <row r="69" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="14"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="151"/>
-      <c r="G69" s="110"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="22"/>
-    </row>
-    <row r="70" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="133"/>
-    </row>
-    <row r="71" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="133"/>
-    </row>
-    <row r="72" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="47"/>
-      <c r="G72" s="47"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="47"/>
-      <c r="J72" s="47"/>
-      <c r="K72" s="47"/>
-      <c r="L72" s="47"/>
-      <c r="M72" s="47"/>
-      <c r="N72" s="47"/>
-      <c r="O72" s="133"/>
-    </row>
-    <row r="73" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C73" s="11"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="133"/>
-    </row>
-    <row r="74" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="11"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="133"/>
-    </row>
-    <row r="75" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C75" s="11"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="133"/>
-    </row>
-    <row r="76" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="11"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="133"/>
-    </row>
-    <row r="77" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C77" s="11"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="76"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-    </row>
-    <row r="78" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="11"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="76"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="17"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-    </row>
-    <row r="79" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="11"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="76"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="17"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-    </row>
-    <row r="80" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="11"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="133"/>
-    </row>
-    <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="11"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="133"/>
-    </row>
-    <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="14"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-    </row>
-    <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="133"/>
-    </row>
-    <row r="84" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="152"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="11"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="152"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="152"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="11"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="47"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="47"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="133"/>
-    </row>
-    <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="133"/>
-    </row>
-    <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="11"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-      <c r="I90" s="22"/>
-      <c r="L90" s="18"/>
-    </row>
-    <row r="91" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="110"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="22"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="20"/>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="153"/>
-      <c r="E92" s="107"/>
-      <c r="F92" s="149"/>
-      <c r="G92" s="88"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="150"/>
-      <c r="J92" s="20"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="16"/>
-      <c r="G93" s="88"/>
-      <c r="H93" s="11"/>
-      <c r="P93" s="13"/>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="18"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="11"/>
-      <c r="P94" s="13"/>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="11"/>
-      <c r="P95" s="13"/>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="148"/>
-      <c r="E96" s="127"/>
-      <c r="F96" s="149"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="150"/>
-      <c r="J96" s="149"/>
-      <c r="K96" s="149"/>
-      <c r="P96" s="13"/>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="22"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="20"/>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20"/>
-      <c r="P97" s="13"/>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="18"/>
-      <c r="G98" s="21"/>
-      <c r="H98" s="11"/>
-      <c r="P98" s="13"/>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="20"/>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20"/>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C100" s="14"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-    </row>
-    <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="47"/>
-    </row>
-    <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-    </row>
-    <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-    </row>
-    <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-    </row>
-    <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-    </row>
-    <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-    </row>
-    <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C108" s="14"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="47"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="47"/>
-      <c r="K108" s="47"/>
-      <c r="L108" s="47"/>
-      <c r="M108" s="47"/>
-    </row>
-    <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C109" s="14"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="14"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-    </row>
-    <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C110" s="14"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="14"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-    </row>
-    <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="14"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="14"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-    </row>
-    <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="11"/>
-      <c r="E112" s="19"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="47"/>
-    </row>
-    <row r="113" spans="3:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="11"/>
-      <c r="E113" s="18"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="47"/>
-    </row>
-    <row r="114" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="11"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="11"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-    </row>
-    <row r="115" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="11"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="17"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="17"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-    </row>
-    <row r="116" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="11"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="17"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-    </row>
-    <row r="117" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="11"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="17"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="11"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="17"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-    </row>
-    <row r="118" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="11"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="17"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-    </row>
-    <row r="119" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="11"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="17"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="17"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="17"/>
-      <c r="M119" s="17"/>
-      <c r="N119" s="17"/>
-    </row>
-    <row r="120" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="11"/>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="17"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-    </row>
-    <row r="121" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="11"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
-      <c r="F121" s="17"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="17"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-    </row>
-    <row r="122" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="11"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="17"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-    </row>
-    <row r="123" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="14"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="G123" s="22"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="22"/>
-    </row>
-    <row r="124" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="14"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="22"/>
-    </row>
-    <row r="125" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="14"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
-      <c r="G125" s="22"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="22"/>
-    </row>
-    <row r="126" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="14"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="G126" s="22"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="22"/>
-    </row>
-    <row r="127" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C127" s="14"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="22"/>
-    </row>
-    <row r="128" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C128" s="14"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="22"/>
-    </row>
-    <row r="129" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="11"/>
-      <c r="D129" s="11"/>
-      <c r="E129" s="34"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="11"/>
-      <c r="H129" s="11"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="142"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="11"/>
-      <c r="F130" s="143"/>
-      <c r="G130" s="11"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="13"/>
-      <c r="L130" s="13"/>
-      <c r="M130" s="13"/>
-      <c r="N130" s="13"/>
-    </row>
-    <row r="131" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="154"/>
-      <c r="G131" s="11"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-    </row>
-    <row r="132" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="154"/>
-      <c r="G132" s="11"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="17"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-    </row>
-    <row r="133" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="152"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="17"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="17"/>
-      <c r="M133" s="17"/>
-      <c r="N133" s="17"/>
-    </row>
-    <row r="134" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
-      <c r="E134" s="11"/>
-      <c r="F134" s="143"/>
-      <c r="G134" s="11"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="13"/>
-      <c r="L134" s="13"/>
-      <c r="M134" s="13"/>
-      <c r="N134" s="13"/>
-      <c r="O134" s="142"/>
-      <c r="P134" s="13"/>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="11"/>
-      <c r="D135" s="11"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="143"/>
-      <c r="G135" s="11"/>
-      <c r="H135" s="11"/>
-      <c r="I135" s="11"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="13"/>
-      <c r="L135" s="13"/>
-      <c r="M135" s="13"/>
-      <c r="N135" s="13"/>
-      <c r="O135" s="142"/>
-      <c r="P135" s="13"/>
-      <c r="Q135" s="13"/>
-    </row>
-    <row r="136" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
-      <c r="E136" s="16"/>
-      <c r="F136" s="143"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="13"/>
-      <c r="L136" s="13"/>
-      <c r="M136" s="13"/>
-      <c r="N136" s="13"/>
-      <c r="O136" s="142"/>
-      <c r="P136" s="13"/>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="11"/>
-      <c r="E137" s="11"/>
-      <c r="F137" s="143"/>
-      <c r="G137" s="11"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-      <c r="O137" s="142"/>
-      <c r="P137" s="13"/>
-      <c r="Q137" s="13"/>
-    </row>
-    <row r="138" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
-      <c r="F138" s="154"/>
-      <c r="G138" s="11"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="18"/>
-      <c r="P138" s="13"/>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
-      <c r="F139" s="154"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="18"/>
-      <c r="P139" s="13"/>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="152"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="P140" s="13"/>
-      <c r="Q140" s="13"/>
-    </row>
-    <row r="141" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="11"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="152"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="P141" s="13"/>
-      <c r="Q141" s="13"/>
-    </row>
-    <row r="142" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="152"/>
-      <c r="G142" s="21"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="18"/>
-      <c r="P142" s="13"/>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="152"/>
-      <c r="G143" s="21"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="18"/>
-      <c r="P143" s="13"/>
-      <c r="Q143" s="13"/>
-    </row>
-    <row r="144" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="152"/>
-      <c r="G144" s="21"/>
-      <c r="H144" s="11"/>
-      <c r="P144" s="13"/>
-      <c r="Q144" s="13"/>
-    </row>
-    <row r="145" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="18"/>
-      <c r="E145" s="18"/>
-      <c r="F145" s="152"/>
-      <c r="G145" s="18"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="18"/>
-      <c r="P145" s="13"/>
-      <c r="Q145" s="13"/>
-    </row>
-    <row r="146" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="18"/>
-      <c r="H146" s="11"/>
-      <c r="P146" s="13"/>
-      <c r="Q146" s="13"/>
-    </row>
-    <row r="147" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="11"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="18"/>
-      <c r="F147" s="152"/>
-      <c r="G147" s="21"/>
-      <c r="H147" s="11"/>
-      <c r="P147" s="13"/>
-      <c r="Q147" s="13"/>
-    </row>
-    <row r="148" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="18"/>
-      <c r="E148" s="18"/>
-      <c r="F148" s="152"/>
-      <c r="G148" s="18"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="18"/>
-      <c r="P148" s="13"/>
-      <c r="Q148" s="13"/>
-    </row>
-    <row r="149" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="11"/>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="152"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="18"/>
-      <c r="P149" s="13"/>
-      <c r="Q149" s="13"/>
-    </row>
-    <row r="150" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="152"/>
-      <c r="G150" s="18"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="18"/>
-      <c r="P150" s="13"/>
-      <c r="Q150" s="13"/>
-    </row>
-    <row r="151" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="11"/>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="152"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="18"/>
-      <c r="P151" s="13"/>
-      <c r="Q151" s="13"/>
-    </row>
-    <row r="152" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="96"/>
-      <c r="E152" s="96"/>
-      <c r="F152" s="155"/>
-      <c r="G152" s="34"/>
-      <c r="H152" s="96"/>
-      <c r="I152" s="96"/>
-      <c r="J152" s="156"/>
-      <c r="K152" s="156"/>
-      <c r="L152" s="156"/>
-      <c r="M152" s="156"/>
-      <c r="N152" s="157"/>
-      <c r="O152" s="157"/>
-      <c r="P152" s="13"/>
-      <c r="Q152" s="13"/>
-    </row>
-    <row r="153" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="11"/>
-      <c r="D153" s="11"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="154"/>
-      <c r="G153" s="11"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="18"/>
-      <c r="P153" s="13"/>
-      <c r="Q153" s="13"/>
-    </row>
-    <row r="154" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
-      <c r="E154" s="16"/>
-      <c r="F154" s="154"/>
-      <c r="G154" s="11"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="18"/>
-      <c r="P154" s="13"/>
-      <c r="Q154" s="13"/>
-    </row>
-    <row r="155" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="11"/>
-      <c r="D155" s="11"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="152"/>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
-      <c r="P155" s="13"/>
-      <c r="Q155" s="13"/>
-    </row>
-    <row r="156" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="143"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="13"/>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="13"/>
-      <c r="O156" s="142"/>
-      <c r="P156" s="13"/>
-      <c r="Q156" s="13"/>
-    </row>
-    <row r="157" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="14"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="16"/>
-      <c r="F157" s="143"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="13"/>
-      <c r="L157" s="13"/>
-      <c r="M157" s="13"/>
-      <c r="N157" s="13"/>
-      <c r="O157" s="142"/>
-    </row>
-    <row r="158" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="14"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="143"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="13"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="13"/>
-      <c r="L158" s="13"/>
-      <c r="M158" s="13"/>
-      <c r="N158" s="13"/>
-      <c r="O158" s="142"/>
-    </row>
-    <row r="159" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="13"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="13"/>
-      <c r="L159" s="13"/>
-      <c r="N159" s="13"/>
-      <c r="O159" s="142"/>
-      <c r="P159" s="13"/>
-      <c r="Q159" s="13"/>
-    </row>
-    <row r="160" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="11"/>
-      <c r="G160" s="11"/>
-      <c r="H160" s="11"/>
-    </row>
-    <row r="161" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
-    </row>
-    <row r="162" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="13"/>
-      <c r="F162" s="13"/>
-      <c r="G162" s="13"/>
-      <c r="H162" s="13"/>
-      <c r="I162" s="13"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="13"/>
-      <c r="L162" s="13"/>
-      <c r="M162" s="13"/>
-      <c r="N162" s="13"/>
-      <c r="O162" s="142"/>
-      <c r="P162" s="13"/>
-      <c r="Q162" s="13"/>
-    </row>
-    <row r="163" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="46"/>
-      <c r="D163" s="45"/>
-      <c r="E163" s="29"/>
-      <c r="F163" s="29"/>
-      <c r="G163" s="29"/>
-      <c r="H163" s="29"/>
-      <c r="I163" s="29"/>
-      <c r="J163" s="29"/>
-      <c r="K163" s="29"/>
-      <c r="L163" s="29"/>
-      <c r="M163" s="29"/>
-      <c r="N163" s="29"/>
-      <c r="O163" s="158"/>
-      <c r="P163" s="29"/>
-      <c r="Q163" s="29"/>
-    </row>
-    <row r="164" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="24"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="46"/>
-      <c r="D164" s="45"/>
-      <c r="E164" s="29"/>
-      <c r="F164" s="29"/>
-      <c r="G164" s="29"/>
-      <c r="H164" s="29"/>
-      <c r="I164" s="29"/>
-      <c r="J164" s="29"/>
-      <c r="K164" s="29"/>
-      <c r="L164" s="29"/>
-      <c r="M164" s="29"/>
-      <c r="N164" s="29"/>
-      <c r="O164" s="158"/>
-      <c r="P164" s="29"/>
-      <c r="Q164" s="29"/>
-    </row>
-    <row r="165" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="46"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="29"/>
-      <c r="F165" s="29"/>
-      <c r="G165" s="29"/>
-      <c r="H165" s="29"/>
-      <c r="I165" s="29"/>
-      <c r="J165" s="29"/>
-      <c r="K165" s="29"/>
-      <c r="L165" s="29"/>
-      <c r="M165" s="29"/>
-      <c r="N165" s="29"/>
-      <c r="O165" s="158"/>
-      <c r="P165" s="29"/>
-      <c r="Q165" s="29"/>
-    </row>
-    <row r="166" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:O161" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
-  <conditionalFormatting sqref="E120">
-    <cfRule type="duplicateValues" dxfId="69" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="duplicateValues" dxfId="68" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="duplicateValues" dxfId="67" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="66" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121:E128">
-    <cfRule type="duplicateValues" dxfId="65" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E136">
-    <cfRule type="duplicateValues" dxfId="64" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D142">
-    <cfRule type="duplicateValues" dxfId="63" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:D92 D156">
-    <cfRule type="duplicateValues" dxfId="62" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E158">
-    <cfRule type="duplicateValues" dxfId="61" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E144">
-    <cfRule type="duplicateValues" dxfId="60" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E155">
-    <cfRule type="duplicateValues" dxfId="59" priority="12"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/benefit/data/ccd-template.xlsx
+++ b/benefit/data/ccd-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherdavidson/Documents/Dev/hmcts/sscs/sscs-ccd-definitions/benefit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAB71FB-F658-D547-9D6D-400FBC639FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E25E57-AF14-5443-BC4F-41109ED1803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="2840" windowWidth="24460" windowHeight="13900" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,35 +21,36 @@
     <sheet name="CaseTypeTab" sheetId="6" r:id="rId6"/>
     <sheet name="State" sheetId="7" r:id="rId7"/>
     <sheet name="CaseEvent" sheetId="8" r:id="rId8"/>
-    <sheet name="RoleToAccessProfiles" sheetId="22" r:id="rId9"/>
-    <sheet name="CaseEventToFields" sheetId="9" r:id="rId10"/>
-    <sheet name="SearchParty" sheetId="21" r:id="rId11"/>
-    <sheet name="EventToComplexTypes" sheetId="10" r:id="rId12"/>
-    <sheet name="SearchInputFields" sheetId="11" r:id="rId13"/>
-    <sheet name="SearchResultFields" sheetId="12" r:id="rId14"/>
-    <sheet name="WorkBasketInputFields" sheetId="13" r:id="rId15"/>
-    <sheet name="WorkBasketResultFields" sheetId="14" r:id="rId16"/>
-    <sheet name="UserProfile" sheetId="15" r:id="rId17"/>
-    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId18"/>
-    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId19"/>
-    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId20"/>
-    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId21"/>
-    <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId22"/>
+    <sheet name="CaseRoles" sheetId="23" r:id="rId9"/>
+    <sheet name="RoleToAccessProfiles" sheetId="22" r:id="rId10"/>
+    <sheet name="CaseEventToFields" sheetId="9" r:id="rId11"/>
+    <sheet name="SearchParty" sheetId="21" r:id="rId12"/>
+    <sheet name="EventToComplexTypes" sheetId="10" r:id="rId13"/>
+    <sheet name="SearchInputFields" sheetId="11" r:id="rId14"/>
+    <sheet name="SearchResultFields" sheetId="12" r:id="rId15"/>
+    <sheet name="WorkBasketInputFields" sheetId="13" r:id="rId16"/>
+    <sheet name="WorkBasketResultFields" sheetId="14" r:id="rId17"/>
+    <sheet name="UserProfile" sheetId="15" r:id="rId18"/>
+    <sheet name="AuthorisationCaseType" sheetId="16" r:id="rId19"/>
+    <sheet name="AuthorisationCaseField" sheetId="17" r:id="rId20"/>
+    <sheet name="AuthorisationCaseEvent" sheetId="18" r:id="rId21"/>
+    <sheet name="AuthorisationCaseState" sheetId="19" r:id="rId22"/>
+    <sheet name="AuthorisationComplexType" sheetId="20" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">AuthorisationCaseEvent!$A$3:$F$452</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">AuthorisationCaseField!$A$3:$F$618</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseState!$A$3:$G$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">AuthorisationCaseEvent!$A$3:$F$452</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">AuthorisationCaseField!$A$3:$F$618</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">AuthorisationCaseState!$A$3:$G$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">CaseEvent!$A$3:$V$110</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">CaseEventToFields!$A$3:$O$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">CaseEventToFields!$A$3:$O$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CaseField!$A$2:$L$98</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5">CaseTypeTab!$H$58:$H$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ComplexTypes!$A$3:$M$232</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">FixedLists!$A$1:$E$702</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">State!$A$3:$H$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">WorkBasketInputFields!$A$3:$H$30</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">WorkBasketResultFields!$A$3:$H$3</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="18">AuthorisationCaseField!$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">WorkBasketInputFields!$A$3:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">WorkBasketResultFields!$A$3:$H$3</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="19">AuthorisationCaseField!$J$5</definedName>
     <definedName name="_xlnm.Extract" localSheetId="5">CaseTypeTab!$K$61</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="222">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -814,6 +815,9 @@
   </si>
   <si>
     <t>Disabled</t>
+  </si>
+  <si>
+    <t>CaseRoles</t>
   </si>
 </sst>
 </file>
@@ -3004,6 +3008,55 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9A68F-9D85-C640-9E0E-68D94EA93DB9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="225"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ229"/>
   <sheetViews>
@@ -5540,7 +5593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FC5E5D-C2A1-6040-955C-8FE864F39FBA}">
   <dimension ref="A1:H3"/>
   <sheetViews>
@@ -5592,7 +5645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -5739,7 +5792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I573"/>
   <sheetViews>
@@ -7856,7 +7909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
@@ -8159,7 +8212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
@@ -8831,7 +8884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
@@ -9302,7 +9355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F1048576"/>
   <sheetViews>
@@ -9969,7 +10022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:IV35"/>
   <sheetViews>
@@ -10193,7 +10246,188 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:AMJ1015"/>
   <sheetViews>
@@ -24213,188 +24447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="40.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.83203125" style="1"/>
-    <col min="7" max="7" width="92.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:AMJ696"/>
   <sheetViews>
@@ -30441,7 +30494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:IV151"/>
   <sheetViews>
@@ -31491,7 +31544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
@@ -47817,47 +47870,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9A68F-9D85-C640-9E0E-68D94EA93DB9}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4B2DF8-7DAF-784D-BFC2-F63C9A7D3228}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="225"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/benefit/data/ccd-template.xlsx
+++ b/benefit/data/ccd-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherdavidson/Documents/Dev/hmcts/sscs/sscs-ccd-definitions/benefit/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E25E57-AF14-5443-BC4F-41109ED1803C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FEFE98-FC85-2E44-A096-A457F592A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2840" windowWidth="24460" windowHeight="13900" tabRatio="500" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="2840" windowWidth="24460" windowHeight="13900" tabRatio="500" firstSheet="17" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="223">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -818,6 +818,9 @@
   </si>
   <si>
     <t>CaseRoles</t>
+  </si>
+  <si>
+    <t>AccessProfile</t>
   </si>
 </sst>
 </file>
@@ -10027,7 +10030,7 @@
   <dimension ref="A1:IV35"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10082,7 +10085,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="224" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>195</v>
@@ -10432,7 +10435,7 @@
   <dimension ref="A1:AMJ1015"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10494,7 +10497,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="224" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>195</v>
@@ -24452,7 +24455,7 @@
   <dimension ref="A1:AMJ696"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24534,7 +24537,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="224" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>195</v>
@@ -30499,7 +30502,7 @@
   <dimension ref="A1:IV151"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30561,7 +30564,7 @@
         <v>203</v>
       </c>
       <c r="E3" s="224" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>195</v>
@@ -31548,8 +31551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AMJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -31617,7 +31620,7 @@
         <v>57</v>
       </c>
       <c r="F3" s="224" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="G3" s="220" t="s">
         <v>195</v>
@@ -47873,7 +47876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC4B2DF8-7DAF-784D-BFC2-F63C9A7D3228}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
